--- a/report/reliability/by-modalidade/Educação a Distância.xlsx
+++ b/report/reliability/by-modalidade/Educação a Distância.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7789403277105941</v>
+        <v>0.7686293602204052</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7979672904309955</v>
+        <v>0.7889365312376581</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8949735240224541</v>
+        <v>0.9002094826562096</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24763444762706938</v>
+        <v>0.22332005805927652</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.9496935527583417</v>
+        <v>3.737911330008526</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.026523975046421077</v>
+        <v>0.026074875726846695</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.882034632034632</v>
+        <v>2.288711288711289</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7884826636779005</v>
+        <v>0.6894422398050721</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.20206270964635797</v>
+        <v>0.17608126551720388</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.763584306871493</v>
+        <v>0.773666344384565</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7759548852993655</v>
+        <v>0.8032588086235739</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.881837326651547</v>
+        <v>0.9108848031448207</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2394589055959762</v>
+        <v>0.2538621811057587</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.4633867662599274</v>
+        <v>4.082819683076402</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.028459166002376184</v>
+        <v>0.02626220745124197</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03785699789347218</v>
+        <v>0.05563211335572986</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.19632769770411546</v>
+        <v>0.19018210319239404</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7636420165650037</v>
+        <v>0.756182667548486</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7791453026336377</v>
+        <v>0.7716260362811526</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8849396464701496</v>
+        <v>0.8909110859933468</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2428343137965607</v>
+        <v>0.21970417929585495</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.5278638486061316</v>
+        <v>3.3787828687472734</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02841957029487527</v>
+        <v>0.027495151914102074</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.037773823312615515</v>
+        <v>0.06329768108585641</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2050816817306155</v>
+        <v>0.17193664916199103</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7646426371374562</v>
+        <v>0.7580968692929654</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7812041824962891</v>
+        <v>0.7771760027287676</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8796806007299783</v>
+        <v>0.8917548239012077</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24504844154274252</v>
+        <v>0.2251989558838781</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.570471279612278</v>
+        <v>3.4878469655256708</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.028300767869723017</v>
+        <v>0.02728498664898381</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.034895727673293436</v>
+        <v>0.062478036692134184</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.19904373756210045</v>
+        <v>0.17841943988046993</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7630622481703807</v>
+        <v>0.756687209176809</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7793936855337071</v>
+        <v>0.7736346775433738</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8782324782180907</v>
+        <v>0.8862417466103023</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.24309991736474326</v>
+        <v>0.22167064934463243</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.532961816706261</v>
+        <v>3.4176377774984075</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.02837208510111905</v>
+        <v>0.027848558162760974</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03459152900320664</v>
+        <v>0.04834728832831284</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.19904373756210045</v>
+        <v>0.18344369272815322</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7575194774533721</v>
+        <v>0.7404127816121971</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7849810659460508</v>
+        <v>0.7686429119485371</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8617650906897434</v>
+        <v>0.8817860304828326</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2491853603350766</v>
+        <v>0.21682892255197223</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.650753220407536</v>
+        <v>3.3223227281351377</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.02909549691658434</v>
+        <v>0.028963982842446428</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.030905904463472095</v>
+        <v>0.04775833722265618</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2050816817306155</v>
+        <v>0.17841943988046993</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7627765596422934</v>
+        <v>0.7464245269995631</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7854340711474246</v>
+        <v>0.7682653937509609</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.862612659440531</v>
+        <v>0.8804629197683719</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2496882208484588</v>
+        <v>0.21646884516260814</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.6605721856571294</v>
+        <v>3.3152812442925637</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.028477084308096288</v>
+        <v>0.028235628571126978</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.031224543467784166</v>
+        <v>0.04828606885179203</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2153180556915089</v>
+        <v>0.17841943988046993</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7638767288879701</v>
+        <v>0.7592454281886416</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7889219117000948</v>
+        <v>0.7747833775823959</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8686378259512337</v>
+        <v>0.8831754690139584</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.253608962306438</v>
+        <v>0.22280646444821398</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7375831762280014</v>
+        <v>3.440169598786395</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.0282463895601474</v>
+        <v>0.027496508839301468</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.033074222526363474</v>
+        <v>0.050419744863677625</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.21674222628090556</v>
+        <v>0.18643721129457735</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7623798291009748</v>
+        <v>0.7446436369784633</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7836627871279617</v>
+        <v>0.767977529121047</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8658832694062975</v>
+        <v>0.8771968620690872</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.24773019273105923</v>
+        <v>0.21619484520013602</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.622413253477069</v>
+        <v>3.3099273799290945</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.028363434977547092</v>
+        <v>0.02828899901486969</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03393929337292867</v>
+        <v>0.05004543493649252</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.19904373756210045</v>
+        <v>0.17608126551720388</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7729736577602815</v>
+        <v>0.7475387993596704</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7942129398845761</v>
+        <v>0.7675163849406232</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8923597254492895</v>
+        <v>0.8859528244811</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.25972745203305464</v>
+        <v>0.21575692810952649</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.85939203096205</v>
+        <v>3.301378399267397</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.027361390832638163</v>
+        <v>0.027927643194771132</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.037569053919031425</v>
+        <v>0.052618465929818205</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.21674222628090556</v>
+        <v>0.174599540807445</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7755341346994248</v>
+        <v>0.758788148463088</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7942590668163338</v>
+        <v>0.7786069423443878</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8919622447298007</v>
+        <v>0.8966357596440496</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.25978172387509607</v>
+        <v>0.22664733377385163</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.8604815022749692</v>
+        <v>3.516853466812629</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.026942521606204507</v>
+        <v>0.026942471581419068</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.037307164866778465</v>
+        <v>0.06309216885513251</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2153180556915089</v>
+        <v>0.17193664916199103</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7526623790227365</v>
+        <v>0.7638496974956531</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7743414728233052</v>
+        <v>0.7826150544802359</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8727321065737823</v>
+        <v>0.8974603922195157</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23777712180193133</v>
+        <v>0.23077586565961838</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.431474460599406</v>
+        <v>3.6001345567376606</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02976007736607185</v>
+        <v>0.02625605502136822</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.036806269172170655</v>
+        <v>0.06189575037108263</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.19317562175881817</v>
+        <v>0.18344369272815322</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7586298979083013</v>
+        <v>0.7417507561277918</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7799280797638183</v>
+        <v>0.7681358011437592</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8776657275424865</v>
+        <v>0.8821119738118455</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24367275929369484</v>
+        <v>0.2163454337484827</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.5439690757766695</v>
+        <v>3.312869364623275</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.029068353800086277</v>
+        <v>0.029049774028186898</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03695520500464509</v>
+        <v>0.05984712636563605</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.2050816817306155</v>
+        <v>0.1684544943590433</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7470294960492481</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7728506739254617</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8848955631839609</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2209001504860608</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.4023903450713</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.02843046764971938</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.059831065284616874</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.174599540807445</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>154.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.548375881355029</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6243384817123868</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.580030960328018</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.478584098300438</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.5844155844155843</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.8759778752488405</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5300605905054324</v>
+        <v>0.0792130728773985</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.596567274401522</v>
+        <v>0.24059297721123377</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5448511944879855</v>
+        <v>0.1350670535243639</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4449844919217417</v>
+        <v>0.07026949250473606</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9740259740259742</v>
+        <v>0.9935064935064936</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.0286614943260857</v>
+        <v>0.08058229640253803</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5159890914827128</v>
+        <v>0.48051436709693235</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.5783505145319141</v>
+        <v>0.5665423934206352</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5435586983289827</v>
+        <v>0.5140175745620383</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.425297606800971</v>
+        <v>0.4000267954997787</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4675324675324677</v>
+        <v>3.5844155844155843</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0735612422069991</v>
+        <v>0.8759778752488405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5330617752574248</v>
+        <v>0.4537155173232347</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5943820181847405</v>
+        <v>0.514109021262784</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5632839943782256</v>
+        <v>0.46413495118822</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4279100949557649</v>
+        <v>0.3555009990022329</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.6623376623376624</v>
+        <v>3.9740259740259742</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2536001969792423</v>
+        <v>1.0286614943260857</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6206256552011981</v>
+        <v>0.5899302799647858</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5443139706288012</v>
+        <v>0.5477775438852491</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5549068476334541</v>
+        <v>0.5526907654941217</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4762337345472229</v>
+        <v>0.5524689027282734</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>2.012987012987013</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8541140018500424</v>
+        <v>0.49068221374600685</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6195979528968035</v>
+        <v>0.6570156090166956</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.540176680341017</v>
+        <v>0.5939792517689766</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5500079415659267</v>
+        <v>0.6087536513092697</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.45487879842539825</v>
+        <v>0.512669454415856</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.279220779220779</v>
+        <v>2.012987012987013</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.0690585565457242</v>
+        <v>1.8541140018500424</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.566894404335701</v>
+        <v>0.6543578606133966</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.5079187377837323</v>
+        <v>0.5974152553006408</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.49904995016397663</v>
+        <v>0.6140122326596454</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.42183128312195894</v>
+        <v>0.4886414565374111</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.435064935064935</v>
+        <v>2.279220779220779</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.7374209895998964</v>
+        <v>2.0690585565457242</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6098961773686551</v>
+        <v>0.544167405143065</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.5562863777575817</v>
+        <v>0.5369391385243447</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.5512179825144297</v>
+        <v>0.5448240090414735</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.450351608745459</v>
+        <v>0.5065768282524113</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.4025974025974026</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.988593224700955</v>
+        <v>0.45918185455640326</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4295225719396906</v>
+        <v>0.6209930866364863</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.45757879768468196</v>
+        <v>0.6000298733425926</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.38140259854391995</v>
+        <v>0.6170278019915241</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.315381074700015</v>
+        <v>0.4785136028450638</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>3.207792207792208</v>
+        <v>2.435064935064935</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.2243462957697175</v>
+        <v>1.7374209895998964</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4161794230841036</v>
+        <v>0.6370827834116852</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4571322755199812</v>
+        <v>0.6042086546667069</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.38223841801943265</v>
+        <v>0.6009468549887544</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2906744253220218</v>
+        <v>0.47424678561347916</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.824675324675325</v>
+        <v>2.4025974025974026</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3241503226233375</v>
+        <v>1.988593224700955</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6314962108611745</v>
+        <v>0.46034578990555397</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6381753759844293</v>
+        <v>0.5002880158563556</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6155390994478769</v>
+        <v>0.4280631047431341</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5404102057711937</v>
+        <v>0.34260981913838673</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.448051948051948</v>
+        <v>3.207792207792208</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2630609556454189</v>
+        <v>1.2243462957697175</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>154.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5764221831764896</v>
+        <v>0.42534100400540087</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5896689550469207</v>
+        <v>0.4608919011346391</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5580209862405229</v>
+        <v>0.388681610820117</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.47944715996311366</v>
+        <v>0.2932461472035664</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.824675324675325</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3241503226233375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>154.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.618362326199579</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.598592896739143</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5713601073992212</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5192081724139657</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.448051948051948</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2630609556454189</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>154.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5720942379771052</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5551299544430768</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5227489366483696</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4684394136378645</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.2857142857142856</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2298800925361817</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4935064935064935</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.09740259740259741</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.032467532467532464</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.045454545454545456</v>
+        <v>0.9935064935064936</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.38311688311688313</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.42207792207792205</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.11688311688311688</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.032467532467532464</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.01948051948051948</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.045454545454545456</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.42857142857142855</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.1038961038961039</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.37012987012987014</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.3961038961038961</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.07792207792207792</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.01948051948051948</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.18831168831168832</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.2597402597402597</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.05844155844155844</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.3961038961038961</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.03896103896103896</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.032467532467532464</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.17532467532467533</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.13636363636363635</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.22077922077922077</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.2987012987012987</v>
+        <v>0.3961038961038961</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.032467532467532464</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.012987012987012988</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.2857142857142857</v>
+        <v>0.18831168831168832</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.33116883116883117</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.03896103896103896</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.2987012987012987</v>
+        <v>0.3961038961038961</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.11688311688311688</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.07142857142857142</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E50" t="n" s="112">
+        <v>0.17532467532467533</v>
+      </c>
+      <c r="F50" t="n" s="113">
         <v>0.13636363636363635</v>
       </c>
-      <c r="F50" t="n" s="113">
-        <v>0.14935064935064934</v>
-      </c>
       <c r="G50" t="n" s="114">
-        <v>0.22727272727272727</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.05194805194805195</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1038961038961039</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.03896103896103896</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.19480519480519481</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.6103896103896104</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.11688311688311688</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.07792207792207792</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="D52" t="n" s="111">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.33116883116883117</v>
+      </c>
+      <c r="G52" t="n" s="114">
         <v>0.03896103896103896</v>
-      </c>
-      <c r="E52" t="n" s="112">
-        <v>0.3961038961038961</v>
-      </c>
-      <c r="F52" t="n" s="113">
-        <v>0.37012987012987014</v>
-      </c>
-      <c r="G52" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.12987012987012986</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.05194805194805195</v>
+        <v>0.11688311688311688</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2857142857142857</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.3051948051948052</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="F53" t="n" s="113">
+        <v>0.14935064935064934</v>
+      </c>
+      <c r="G53" t="n" s="114">
         <v>0.22727272727272727</v>
-      </c>
-      <c r="G53" t="n" s="114">
-        <v>0.0</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.12337662337662338</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.09740259740259741</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.33116883116883117</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.2662337662337662</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.18181818181818182</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.3961038961038961</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.37012987012987014</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.3051948051948052</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.12337662337662338</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.09740259740259741</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.33116883116883117</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.2662337662337662</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.807507039075453</v>
+        <v>0.854597221202555</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8114897985970219</v>
+        <v>0.9648957144295361</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8027317382932226</v>
+        <v>0.9502208751862689</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5183480900439307</v>
+        <v>0.9015959509657824</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.304752700689661</v>
+        <v>27.48655039547024</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02496786569955659</v>
+        <v>0.005445134179582425</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6720779220779223</v>
+        <v>1.632034632034632</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8491246360124264</v>
+        <v>1.4336797631552174</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.497397899304175</v>
+        <v>0.8950590787146492</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7756524189353216</v>
+        <v>0.9594315090242793</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7731019743205905</v>
+        <v>0.962428708252151</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7279183344777356</v>
+        <v>0.9275783899445443</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5317815890323788</v>
+        <v>0.9275783899445444</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.4072662025403773</v>
+        <v>25.61606650927169</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.030550490742470838</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.026732307730551054</v>
-      </c>
+        <v>0.006272454701234476</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.4949329797027819</v>
+        <v>0.9275783899445444</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.780355518230807</v>
+        <v>0.5733911785972523</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7823719497985968</v>
+        <v>0.9446239315364624</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7326867843038842</v>
+        <v>0.8950590787146493</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5451096494758136</v>
+        <v>0.8950590787146493</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.594995907349965</v>
+        <v>17.05834230825636</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.028880818410856848</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.02193543848895119</v>
-      </c>
+        <v>0.015036185456457143</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.49986281890556816</v>
+        <v>0.8950590787146492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7360457125404056</v>
+        <v>0.6075843621729737</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7524454835528829</v>
+        <v>0.9373856537985681</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.6784509173655817</v>
+        <v>0.8821503842381537</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5032713113212205</v>
+        <v>0.882150384238154</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.0395142627649108</v>
+        <v>14.970780830050888</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.03629403311480234</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.006864323423629974</v>
-      </c>
+        <v>0.016374498139779533</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.4949329797027819</v>
+        <v>0.8821503842381538</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7354206014819118</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7448877468362562</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6740813278929145</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.49322981034630997</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>2.919843079266562</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.03740887175507988</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.010045619192298587</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.49986281890556816</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>154.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9249437102496411</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9576825939016987</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9189259518658224</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9054529770457158</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.6038961038961039</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.49068221374600685</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>154.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7514084373745133</v>
+        <v>0.9779458467465288</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7866191792296859</v>
+        <v>0.9688964323773281</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6811490599890064</v>
+        <v>0.94936168058408</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.5989308872417795</v>
+        <v>0.9341857962822068</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.5844155844155843</v>
+        <v>2.012987012987013</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8759778752488405</v>
+        <v>1.8541140018500424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>154.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7609141868158187</v>
+        <v>0.9830378015118927</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7741120108112464</v>
+        <v>0.9733478186249432</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.6640576820468972</v>
+        <v>0.9585399864730167</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.5767178562255902</v>
+        <v>0.9392720769123261</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9740259740259742</v>
+        <v>2.279220779220779</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0286614943260857</v>
+        <v>2.0690585565457242</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>154.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8253246709924729</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8133734730373486</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7533974142663334</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6697296513507749</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4675324675324677</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0735612422069991</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>154.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.853160103781794</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.822796505323265</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7656689650177475</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6802138027606048</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.6623376623376624</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2536001969792423</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.3961038961038961</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.6038961038961039</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.3961038961038961</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.01948051948051948</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.18831168831168832</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.05844155844155844</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.006493506493506494</v>
+        <v>0.3961038961038961</v>
       </c>
       <c r="C27" t="n" s="225">
         <v>0.03896103896103896</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.006493506493506494</v>
+        <v>0.032467532467532464</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.35714285714285715</v>
+        <v>0.17532467532467533</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4935064935064935</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.09740259740259741</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.006493506493506494</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4155844155844156</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.38311688311688313</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.42207792207792205</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.11688311688311688</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.01948051948051948</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.1038961038961039</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.37012987012987014</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,28 +5873,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.920666515574037</v>
+        <v>0.828221199766111</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.9251837105654686</v>
+        <v>0.9471102950181146</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.8607831121095257</v>
+        <v>0.9353474288843513</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.8607831121095257</v>
+        <v>0.8565092517404942</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>12.366073184838429</v>
+        <v>17.90727127977925</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.012355785299950186</v>
+        <v>0.009462826280627602</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.418831168831169</v>
+        <v>1.8463203463203464</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.797302607832135</v>
+        <v>1.3350387333644376</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.8607831121095257</v>
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.920666515574037</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.9251837105654686</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.8607831121095257</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.8607831121095257</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.7409475660929603</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.8607831121095257</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.8607831121095257</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>12.366073184838429</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.012355785299950186</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.8607831121095257</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.7409475660929603</v>
+        <v>0.5150396417115535</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.8607831121095257</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.7409475660929603</v>
-      </c>
+        <v>0.8833511217937104</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.7910733078536444</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.7910733078536443</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>7.5727356780194235</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.02234962964331972</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.8607831121095257</v>
+        <v>0.7910733078536443</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.6239092890146756</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.957068417706417</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.9176713352583126</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.9176713352583126</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>22.292875467799156</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.013350048786127198</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.9176713352583127</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>154.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9595402686357333</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9645680670926043</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.894910799522077</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.860783112109526</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.435064935064935</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.7374209895998964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>154.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9692680175253432</v>
+        <v>0.9055133816450552</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9645680670926043</v>
+        <v>0.9494695914775844</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.894910799522077</v>
+        <v>0.9245170535546412</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.8607831121095258</v>
+        <v>0.8811828475261759</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.7012987012987013</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.45918185455640326</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>154.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9664005453287192</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9739042828528387</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9673895640615432</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.9006022680468989</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.435064935064935</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.7374209895998964</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>154.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9606169178496827</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9295291226961084</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8672317705839868</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.8579705606109804</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.4025974025974026</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.988593224700955</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.2987012987012987</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.7012987012987013</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.032467532467532464</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.012987012987012988</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.2857142857142857</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.33116883116883117</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.03896103896103896</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.2987012987012987</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.11688311688311688</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.07142857142857142</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.13636363636363635</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.14935064935064934</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.22727272727272727</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8570558993608604</v>
+        <v>0.5821815862215607</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8572294381157572</v>
+        <v>0.6773954227613805</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7501325871593378</v>
+        <v>0.6100822395729415</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7501325871593378</v>
+        <v>0.41173817986480943</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>6.004245040450229</v>
+        <v>2.099770029798227</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.023018878456851334</v>
+        <v>0.03094580250245234</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.366883116883117</v>
+        <v>2.8506493506493507</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1660253248298125</v>
+        <v>0.5767741506896048</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7501325871593378</v>
+        <v>0.3318899863510246</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7501325871593378</v>
+        <v>0.7361307005171602</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7501325871593378</v>
+        <v>0.7421196897018643</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5626988983183616</v>
+        <v>0.5899763941181106</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7501325871593378</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7501325871593378</v>
-      </c>
+        <v>0.5899763941181106</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>2.8777679414294903</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.04170173608945309</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7501325871593378</v>
+        <v>0.5899763941181106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5626988983183616</v>
+        <v>0.09304800638564759</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7501325871593378</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5626988983183616</v>
-      </c>
+        <v>0.4771745510862666</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.3133481591252931</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.3133481591252931</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>0.9126842468699349</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.021640632183096885</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7501325871593378</v>
+        <v>0.3133481591252931</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.11418524073020642</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.49837447499744747</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.33188998635102496</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.33188998635102474</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>0.9935189701419431</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.02461416375672735</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.3318899863510246</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>154.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9372155324646809</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9354497814311942</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8101948794819983</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7501325871593376</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.448051948051948</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2630609556454189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>154.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9336603710782267</v>
+        <v>0.40087312410672077</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9354497814311942</v>
+        <v>0.703425445362178</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8101948794819983</v>
+        <v>0.4250911987002328</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.750132587159338</v>
+        <v>0.3607019837356402</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.2857142857142856</v>
+        <v>0.9935064935064936</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2298800925361817</v>
+        <v>0.08058229640253803</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>154.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.8724433586859726</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8216984989833852</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7082691351870531</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.5996391080428071</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.5844155844155843</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.8759778752488405</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>154.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9077603280535816</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8137708970675465</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.6934980689607515</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.5983511772101242</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.9740259740259742</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.0286614943260857</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.12987012987012986</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.3051948051948052</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9935064935064936</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.12337662337662338</v>
-      </c>
-      <c r="C24" t="n" s="455">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="G26" t="n" s="459">
         <v>0.09740259740259741</v>
       </c>
-      <c r="D24" t="n" s="456">
-        <v>0.33116883116883117</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2662337662337662</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.006493506493506494</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.4155844155844156</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9594315090242793</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.962428708252151</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9275783899445443</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9275783899445444</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>25.61606650927169</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.006272454701234476</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>2.146103896103896</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.9258520944736754</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9275783899445444</v>
+      <c r="A6" t="n" s="491">
+        <v>0.7055345816336009</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.7069358874967935</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5467137171785365</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5467137171785366</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.412222641177393</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04725049700525463</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>3.0162337662337664</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1208348183805763</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5467137171785367</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9275783899445444</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9275783899445444</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.8604016694921132</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9275783899445444</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9275783899445444</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9275783899445444</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.5467137171785367</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.5467137171785367</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.29889588855117266</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.5467137171785367</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.5467137171785367</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.5467137171785367</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.8604016694921132</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9275783899445444</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.8604016694921132</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9275783899445444</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.29889588855117266</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.5467137171785367</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.29889588855117266</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.5467137171785367</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>154.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.979651557162529</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9817276582496146</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9455104598672236</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9275783899445446</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>2.012987012987013</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.8541140018500424</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8691188963817275</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8794071062876785</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.65023442147033</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5467137171785366</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>3.207792207792208</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.2243462957697175</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>154.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9836930489178886</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9817276582496146</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9455104598672236</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9275783899445444</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>2.279220779220779</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.0690585565457242</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8893001914312759</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8794071062876785</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.65023442147033</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5467137171785367</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.824675324675325</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3241503226233375</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.6103896103896104</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="E24" t="n" s="572">
         <v>0.3961038961038961</v>
       </c>
-      <c r="C23" t="n" s="569">
-        <v>0.07792207792207792</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.01948051948051948</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.18831168831168832</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.05844155844155844</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.3961038961038961</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.17532467532467533</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.22077922077922077</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="F24" t="n" s="573">
+        <v>0.37012987012987014</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.7055345816336009</v>
+        <v>0.8570558993608604</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.7069358874967935</v>
+        <v>0.8572294381157572</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.5467137171785365</v>
+        <v>0.7501325871593378</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5467137171785366</v>
+        <v>0.7501325871593378</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.412222641177393</v>
+        <v>6.004245040450229</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04725049700525463</v>
+        <v>0.023018878456851334</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>3.0162337662337664</v>
+        <v>2.366883116883117</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1208348183805763</v>
+        <v>1.1660253248298125</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5467137171785367</v>
+        <v>0.7501325871593378</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.5467137171785367</v>
+        <v>0.7501325871593378</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.5467137171785367</v>
+        <v>0.7501325871593378</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.29889588855117266</v>
+        <v>0.5626988983183616</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.5467137171785367</v>
+        <v>0.7501325871593378</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.5467137171785367</v>
+        <v>0.7501325871593378</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.5467137171785367</v>
+        <v>0.7501325871593378</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.29889588855117266</v>
+        <v>0.5626988983183616</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.5467137171785367</v>
+        <v>0.7501325871593378</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.29889588855117266</v>
+        <v>0.5626988983183616</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.5467137171785367</v>
+        <v>0.7501325871593378</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>154.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8691188963817275</v>
+        <v>0.9372155324646809</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8794071062876785</v>
+        <v>0.9354497814311942</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.65023442147033</v>
+        <v>0.8101948794819983</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5467137171785366</v>
+        <v>0.7501325871593376</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>3.207792207792208</v>
+        <v>2.448051948051948</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.2243462957697175</v>
+        <v>1.2630609556454189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>154.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8893001914312759</v>
+        <v>0.9336603710782267</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8794071062876785</v>
+        <v>0.9354497814311942</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.65023442147033</v>
+        <v>0.8101948794819983</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5467137171785367</v>
+        <v>0.750132587159338</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.824675324675325</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3241503226233375</v>
+        <v>1.2298800925361817</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="C23" t="n" s="684">
         <v>0.05194805194805195</v>
       </c>
-      <c r="C23" t="n" s="684">
-        <v>0.1038961038961039</v>
-      </c>
       <c r="D23" t="n" s="685">
-        <v>0.03896103896103896</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.19480519480519481</v>
+        <v>0.3051948051948052</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.6103896103896104</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.11688311688311688</v>
+        <v>0.12337662337662338</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.07792207792207792</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.03896103896103896</v>
+        <v>0.33116883116883117</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.3961038961038961</v>
+        <v>0.2662337662337662</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.37012987012987014</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7709951719525522</v>
+        <v>0.7510489816157511</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7860454286980131</v>
+        <v>0.7627052319574663</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8741841777639533</v>
+        <v>0.859931852529785</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2686791799063399</v>
+        <v>0.24323649755542662</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.6738893864929243</v>
+        <v>3.2141679239247094</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02732237061806672</v>
+        <v>0.027014286782535236</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.974675324675325</v>
+        <v>2.4214285714285713</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7801090663073089</v>
+        <v>0.7059934164104785</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.2169283554537907</v>
+        <v>0.19721796779647122</v>
       </c>
     </row>
     <row r="7">
@@ -7421,28 +7592,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.751758391282857</v>
+        <v>0.7293857707272597</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.758507257239796</v>
+        <v>0.7328371381996286</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8544317362861411</v>
+        <v>0.8297766007881174</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2587047329802403</v>
+        <v>0.23358826446341188</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.140911186689257</v>
+        <v>2.743035215527887</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.029587871840422535</v>
+        <v>0.03037630248300229</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.0420632069642041</v>
+        <v>0.04331915570887903</v>
       </c>
       <c r="I11" t="n" s="753">
         <v>0.19813085267928582</v>
@@ -7450,263 +7621,263 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7563181317676599</v>
+        <v>0.6884321180364396</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7665508859218801</v>
+        <v>0.7221447825427794</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8605274140248986</v>
+        <v>0.8217956157666645</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2673150999038386</v>
+        <v>0.2240708172717982</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.283588755300939</v>
+        <v>2.598996661467992</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02895553053075608</v>
+        <v>0.03525179348634044</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04154423914703717</v>
+        <v>0.042622697345518025</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.22841163645188084</v>
+        <v>0.19677283275029334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7511874241973084</v>
+        <v>0.7003244492191085</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7630144414001943</v>
+        <v>0.7219188064154844</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8506637286727213</v>
+        <v>0.8186611656734717</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.26348234869907716</v>
+        <v>0.22387512054197245</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.2196664046043666</v>
+        <v>2.5960720216632556</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.02961042396684263</v>
+        <v>0.033954578224280704</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03800324335168947</v>
+        <v>0.04348525323557412</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20206270964635797</v>
+        <v>0.19677283275029334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7521289299436491</v>
+        <v>0.7596525525012805</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7626364769455203</v>
+        <v>0.7800979491067233</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8489614014136174</v>
+        <v>0.8734321104082309</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2630771409181207</v>
+        <v>0.28272445288681014</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.212947242826691</v>
+        <v>3.547479188747184</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.029211565347459497</v>
+        <v>0.027347959888662766</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.0370810422678106</v>
+        <v>0.05912888055688352</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2110050185922031</v>
+        <v>0.20206270964635797</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7384293427262203</v>
+        <v>0.7360325137802993</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7580542400249751</v>
+        <v>0.7380825704468807</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8441902518561026</v>
+        <v>0.8402690312707677</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2582310257776823</v>
+        <v>0.23844963875734063</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.133157779261046</v>
+        <v>2.81799715164504</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.03132054034551586</v>
+        <v>0.028333668191782593</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04036047110353126</v>
+        <v>0.06948094108710418</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.20206270964635797</v>
+        <v>0.18567507490395996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.744676111239181</v>
+        <v>0.7447371797613447</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7637210711247719</v>
+        <v>0.7505153618737757</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8491423427638893</v>
+        <v>0.846770916092554</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.26424218591382753</v>
+        <v>0.2505160711094395</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.2322859882612325</v>
+        <v>3.0082628233569215</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.030584452578246178</v>
+        <v>0.027304749832311775</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.040527905033621886</v>
+        <v>0.06780622191857384</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2110050185922031</v>
+        <v>0.20879376487902399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.734397447251838</v>
+        <v>0.74567774636333</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7667298686710424</v>
+        <v>0.753448262722058</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8261076397875914</v>
+        <v>0.8532716405337766</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.2675110906632641</v>
+        <v>0.2534802650372333</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.2868754533764117</v>
+        <v>3.0559438397819214</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.032571166739389514</v>
+        <v>0.02642292056927497</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.032231296374232665</v>
+        <v>0.06823987777337587</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.21861472695104733</v>
+        <v>0.1911108803306094</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7440294807068157</v>
+        <v>0.7457384839198198</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7677679607970337</v>
+        <v>0.7522994943073326</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8275636611053299</v>
+        <v>0.8509670777664501</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.2686517013248691</v>
+        <v>0.2523136817688162</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.3060380618973055</v>
+        <v>3.0371334616520422</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.031466736081669895</v>
+        <v>0.02597258608311301</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.032564717437083626</v>
+        <v>0.06729129504905022</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2208019280930366</v>
+        <v>0.19813085267928582</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7707181641489074</v>
+        <v>0.7142284549937402</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7867662056420222</v>
+        <v>0.7345121151773266</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8715345877736094</v>
+        <v>0.8278712572118289</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.2907627130870493</v>
+        <v>0.23512640971911333</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.689688156658674</v>
+        <v>2.7666502208487875</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.02728878793822474</v>
+        <v>0.03064620533353734</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.039848422152974156</v>
+        <v>0.06312179006969856</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.23836083944357395</v>
+        <v>0.1867338883173594</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7685606108899435</v>
+        <v>0.7187300094959802</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7818563240282682</v>
+        <v>0.7378382201928464</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8685877180695898</v>
+        <v>0.8304009950647178</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2848137597954296</v>
+        <v>0.23822025399833047</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.5841347247196182</v>
+        <v>2.8144385529256057</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.027233858376413043</v>
+        <v>0.030069089390475284</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.040980527354651075</v>
+        <v>0.06336751131892676</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.2208019280930366</v>
+        <v>0.1867338883173594</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.5698426166889093</v>
+        <v>0.6982214051111356</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6460646201633646</v>
+        <v>0.6262292378054108</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.5978554790981172</v>
+        <v>0.6437109085638055</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.48647429140288917</v>
+        <v>0.6598840298291787</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.5844155844155843</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>0.8759778752488405</v>
+        <v>0.49068221374600685</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5171846227377086</v>
+        <v>0.7837049122377052</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.593045688075484</v>
+        <v>0.686901050237539</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.5320245126615932</v>
+        <v>0.7184521310803083</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.41052427709978156</v>
+        <v>0.642706061311582</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.9740259740259742</v>
+        <v>2.012987012987013</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.0286614943260857</v>
+        <v>1.8541140018500424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5620822850757085</v>
+        <v>0.776213109590146</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.616646119699142</v>
+        <v>0.6881485775467561</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.5804954891384454</v>
+        <v>0.7223221008174536</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.4565901968640251</v>
+        <v>0.6082585008600785</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4675324675324677</v>
+        <v>2.279220779220779</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0735612422069991</v>
+        <v>2.0690585565457242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5606202124171584</v>
+        <v>0.11734815889622056</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6191412147410424</v>
+        <v>0.3129959150840627</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.5865398416195112</v>
+        <v>0.18447965601499747</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.4348948434422504</v>
+        <v>0.10606937726962452</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.6623376623376624</v>
+        <v>0.9935064935064936</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2536001969792423</v>
+        <v>0.08058229640253803</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6536934236260636</v>
+        <v>0.4943054693700211</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6489815051491982</v>
+        <v>0.5952389540260054</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.622227759964439</v>
+        <v>0.5347729310881678</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5449038432607768</v>
+        <v>0.39184030747675713</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.448051948051948</v>
+        <v>3.5844155844155843</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2630609556454189</v>
+        <v>0.8759778752488405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6118372192458771</v>
+        <v>0.43006442273143536</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6119673692992861</v>
+        <v>0.5183178736509455</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5775508969132136</v>
+        <v>0.44888097481715833</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.49794922864098795</v>
+        <v>0.3004262640263634</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.2857142857142856</v>
+        <v>3.9740259740259742</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2298800925361817</v>
+        <v>1.0286614943260857</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.7101220370389276</v>
+        <v>0.45606194529008254</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5918388613680928</v>
+        <v>0.4994217332911624</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6091289170839438</v>
+        <v>0.409830605744947</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5571982995563682</v>
+        <v>0.30269294740971225</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>2.012987012987013</v>
+        <v>3.207792207792208</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.8541140018500424</v>
+        <v>1.2243462957697175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.7053441860116406</v>
+        <v>0.4752724725467703</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5848154720348687</v>
+        <v>0.5068584670941331</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6009826419982942</v>
+        <v>0.4239976078306852</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5274772216432192</v>
+        <v>0.3108115231013359</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>2.279220779220779</v>
+        <v>2.824675324675325</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>2.0690585565457242</v>
+        <v>1.3241503226233375</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.4168121305111819</v>
+        <v>0.6488316428675492</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.4486653821007851</v>
+        <v>0.6164238710333719</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.35808151356420737</v>
+        <v>0.5868738145222291</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.27487212889363943</v>
+        <v>0.5254433044786759</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>3.207792207792208</v>
+        <v>2.448051948051948</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.2243462957697175</v>
+        <v>1.2630609556454189</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>154.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.452502089079768</v>
+        <v>0.6229463344065022</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.48529647498695805</v>
+        <v>0.5967012357485368</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.40142794938507076</v>
+        <v>0.5635038417596462</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.3022523409207986</v>
+        <v>0.4975863681574892</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.824675324675325</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3241503226233375</v>
+        <v>1.2298800925361817</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.006493506493506494</v>
+        <v>0.3961038961038961</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.03896103896103896</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.006493506493506494</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.35714285714285715</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4935064935064935</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.09740259740259741</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.006493506493506494</v>
+        <v>0.3961038961038961</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.006493506493506494</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.03896103896103896</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.3181818181818182</v>
+        <v>0.18831168831168832</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.21428571428571427</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4155844155844156</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
+        <v>0.3961038961038961</v>
+      </c>
+      <c r="C41" t="n" s="798">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="D41" t="n" s="799">
         <v>0.032467532467532464</v>
       </c>
-      <c r="C41" t="n" s="798">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="D41" t="n" s="799">
-        <v>0.0</v>
-      </c>
       <c r="E41" t="n" s="800">
-        <v>0.38311688311688313</v>
+        <v>0.17532467532467533</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.42207792207792205</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.11688311688311688</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.032467532467532464</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.01948051948051948</v>
+        <v>0.9935064935064936</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.42857142857142855</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.1038961038961039</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.37012987012987014</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.12987012987012986</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.05194805194805195</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2857142857142857</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.3051948051948052</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.22727272727272727</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.12337662337662338</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.09740259740259741</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.33116883116883117</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.2662337662337662</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.18181818181818182</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.3961038961038961</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.07792207792207792</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.01948051948051948</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.18831168831168832</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.2597402597402597</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.05844155844155844</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="C46" t="n" s="798">
+        <v>0.07792207792207792</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.03896103896103896</v>
+      </c>
+      <c r="E46" t="n" s="800">
         <v>0.3961038961038961</v>
       </c>
-      <c r="C46" t="n" s="798">
-        <v>0.03896103896103896</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.032467532467532464</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.17532467532467533</v>
-      </c>
       <c r="F46" t="n" s="801">
-        <v>0.13636363636363635</v>
+        <v>0.37012987012987014</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.22077922077922077</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="C47" t="n" s="798">
         <v>0.05194805194805195</v>
       </c>
-      <c r="C47" t="n" s="798">
-        <v>0.1038961038961039</v>
-      </c>
       <c r="D47" t="n" s="799">
-        <v>0.03896103896103896</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.19480519480519481</v>
+        <v>0.3051948051948052</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.6103896103896104</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.11688311688311688</v>
+        <v>0.12337662337662338</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.07792207792207792</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.03896103896103896</v>
+        <v>0.33116883116883117</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.3961038961038961</v>
+        <v>0.2662337662337662</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.37012987012987014</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
